--- a/Features/selected_features_RF.xlsx
+++ b/Features/selected_features_RF.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,28 +443,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AvgIpc</t>
+          <t>HallKierAlpha</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HallKierAlpha</t>
+          <t>MaxAbsEStateIndex</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MolWt</t>
+          <t>AvgIpc</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PEOE_VSA9</t>
+          <t>BertzCT</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MaxAbsEStateIndex</t>
+          <t>PEOE_VSA9</t>
         </is>
       </c>
     </row>
@@ -492,49 +492,49 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NOCount</t>
+          <t>MolWt</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SMR_VSA6</t>
+          <t>EState_VSA2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BertzCT</t>
+          <t>SPS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MinAbsPartialCharge</t>
+          <t>NOCount</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PEOE_VSA10</t>
+          <t>NumRotatableBonds</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MinPartialCharge</t>
+          <t>NumHAcceptors</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SPS</t>
+          <t>VSA_EState3</t>
         </is>
       </c>
     </row>
@@ -548,56 +548,112 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SlogP_VSA2</t>
+          <t>MinAbsPartialCharge</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SlogP_VSA1</t>
+          <t>MinPartialCharge</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EState_VSA2</t>
+          <t>PEOE_VSA10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VSA_EState2</t>
+          <t>EState_VSA9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NumHAcceptors</t>
+          <t>MinAbsEStateIndex</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ipc</t>
+          <t>NumHeteroatoms</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MinAbsEStateIndex</t>
+          <t>MaxPartialCharge</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MaxPartialCharge</t>
+          <t>SMR_VSA1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SlogP_VSA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>VSA_EState2</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SMR_VSA6</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EState_VSA6</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FpDensityMorgan3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PEOE_VSA11</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>qed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>VSA_EState5</t>
         </is>
       </c>
     </row>
